--- a/1月會_丞君.xlsx
+++ b/1月會_丞君.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasminechang/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CD2772-C85A-F141-BB89-F96E0EE3BA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="1040" windowWidth="23180" windowHeight="15680" xr2:uid="{DC0E856D-469C-4492-B249-C659EDA4EBF5}"/>
+    <workbookView xWindow="2316" yWindow="1044" windowWidth="23184" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -75,10 +69,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>追蹤日期：2025.1.3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">(預計完成)：2025.2.
 (目前完成)：金融常識與職業道德／多益 - 已考取
 (現況說明)：
@@ -100,25 +90,31 @@
   </si>
   <si>
     <t xml:space="preserve">(預計完成)：2025.5
-(目前完成)： 使用者登入與驗證
- Issue Tracker事物追蹤管理主頁 - 使用者可新增、修改、刪除issue、
- 指派issue給別人、上傳附件
-(現況說明)：學習架設專案管理系統中
+(目前完成)： 
+1. 使用者登入與驗證
+2. Issue Tracker事務追蹤管理主頁 - 
+   使用者可新增、修改、刪除事務、
+   指派事務給別人、上傳附件
+(現況說明)：學習建置專案管理系統
 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">(預計完成)：
-(目前完成)：整理業務中台系統總覽文件、存款中台文件
-(現況說明)：
+(目前完成)：整理業務中台系統總覽文件、存款中台文件(上)
+(現況說明)：整理存款中台文件(下)
 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>追蹤日期：2025.1.5</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-404]General"/>
   </numFmts>
@@ -197,6 +193,8 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -327,12 +325,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Excel Built-in Normal 2 2" xfId="3" xr:uid="{CFA8C7D8-06D6-401D-B180-0365C2D2F972}"/>
+    <cellStyle name="Excel Built-in Normal 2 2" xfId="3"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 4" xfId="1" xr:uid="{22A3224A-309F-4FBD-909E-3F2CDB048FEF}"/>
-    <cellStyle name="一般 4 2" xfId="2" xr:uid="{1A8B623C-81E1-4C57-BAB0-C1390DFB6BBE}"/>
-    <cellStyle name="一般 4 2 2" xfId="4" xr:uid="{A96B7E61-43EA-4E7B-B64B-4F71E9379315}"/>
-    <cellStyle name="一般 6 2" xfId="5" xr:uid="{BA253045-06D6-43CC-8041-762A631EFEF0}"/>
+    <cellStyle name="一般 4" xfId="1"/>
+    <cellStyle name="一般 4 2" xfId="2"/>
+    <cellStyle name="一般 4 2 2" xfId="4"/>
+    <cellStyle name="一般 6 2" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -390,7 +388,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -442,7 +440,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -656,42 +654,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C790285-843E-42F9-AC1E-3D5E98B24C1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="74.5" customWidth="1"/>
-    <col min="5" max="5" width="38.1640625" customWidth="1"/>
+    <col min="4" max="4" width="78.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.25" customHeight="1">
+    <row r="1" spans="1:6" ht="34.200000000000003" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="25.75" customHeight="1">
+    <row r="2" spans="1:6" ht="25.8" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -719,40 +717,40 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="114">
+    <row r="4" spans="1:6" ht="158.4">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="80" customHeight="1">
+    <row r="5" spans="1:6" ht="79.95" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
